--- a/Coronavirus (v2.5).xlsx
+++ b/Coronavirus (v2.5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\druon\Desktop\LOL\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9987335-A87E-4131-972F-E97783C886A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9899F40-F4BE-4A19-B7E8-6BF371BBA4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C74FB7AA-F2FE-4EBA-A853-66368F783162}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="464">
   <si>
     <t>Légende :</t>
   </si>
@@ -1480,9 +1480,6 @@
     <t>28,6 M</t>
   </si>
   <si>
-    <t>24,6 M</t>
-  </si>
-  <si>
     <t>Allemagne</t>
   </si>
   <si>
@@ -1519,15 +1516,9 @@
     <t>24,0 M</t>
   </si>
   <si>
-    <t>24,1 M</t>
-  </si>
-  <si>
     <t>24,4 M</t>
   </si>
   <si>
-    <t>24,8 M</t>
-  </si>
-  <si>
     <t>25,1 M</t>
   </si>
   <si>
@@ -1558,46 +1549,82 @@
     <t>Le numéro de version est désormais composé de deux chiffres.</t>
   </si>
   <si>
-    <t>TOP 10 des pays les plus touchés (au 22 janvier) :</t>
-  </si>
-  <si>
-    <t>6,21 s</t>
-  </si>
-  <si>
-    <t>140 ms</t>
-  </si>
-  <si>
-    <t>295 M</t>
-  </si>
-  <si>
-    <t>190 M</t>
-  </si>
-  <si>
-    <t>98,5 M</t>
-  </si>
-  <si>
-    <t>67,2 M</t>
-  </si>
-  <si>
-    <t>41,2 M</t>
-  </si>
-  <si>
-    <t>30,1 M</t>
-  </si>
-  <si>
-    <t>30,4 M</t>
-  </si>
-  <si>
-    <t>28,1 M</t>
-  </si>
-  <si>
-    <t>37,4 M</t>
-  </si>
-  <si>
-    <t>4,38 s</t>
-  </si>
-  <si>
-    <t>3 m 45 s</t>
+    <t>24,2 M</t>
+  </si>
+  <si>
+    <t>24,7 M</t>
+  </si>
+  <si>
+    <t>24,9 M</t>
+  </si>
+  <si>
+    <t>25,7 M</t>
+  </si>
+  <si>
+    <t>25,8 M</t>
+  </si>
+  <si>
+    <t>25,9 M</t>
+  </si>
+  <si>
+    <t>26,0 M</t>
+  </si>
+  <si>
+    <t>26,1 M</t>
+  </si>
+  <si>
+    <t>25,5 M</t>
+  </si>
+  <si>
+    <t>TOP 10 des pays les plus touchés (au 12 février) :</t>
+  </si>
+  <si>
+    <t>214 ms</t>
+  </si>
+  <si>
+    <t>7,44 s</t>
+  </si>
+  <si>
+    <t>332 M</t>
+  </si>
+  <si>
+    <t>204 M</t>
+  </si>
+  <si>
+    <t>106 M</t>
+  </si>
+  <si>
+    <t>81,0 M</t>
+  </si>
+  <si>
+    <t>1,18 tests par personne</t>
+  </si>
+  <si>
+    <t>47,4 M</t>
+  </si>
+  <si>
+    <t>35,7 M</t>
+  </si>
+  <si>
+    <t>35,6 M</t>
+  </si>
+  <si>
+    <t>31,2 M</t>
+  </si>
+  <si>
+    <t>41,7 M</t>
+  </si>
+  <si>
+    <t>3 m 33 s</t>
+  </si>
+  <si>
+    <t>4,63 s</t>
+  </si>
+  <si>
+    <t>13 février 2021</t>
+  </si>
+  <si>
+    <t>Ajout des années dans les colonnes "Date"</t>
   </si>
 </sst>
 </file>
@@ -2243,10 +2270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$A$2:$A$358</c:f>
+              <c:f>'(DB) Données Complètes'!$A$2:$A$379</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -3317,16 +3344,79 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$C$2:$C$358</c:f>
+              <c:f>'(DB) Données Complètes'!$C$2:$C$379</c:f>
               <c:numCache>
                 <c:formatCode>_ * #.##0_ ;_ * \-#.##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>13000</c:v>
                 </c:pt>
@@ -4324,70 +4414,133 @@
                   <c:v>22369000</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>21983000</c:v>
+                  <c:v>21979000</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>22064000</c:v>
+                  <c:v>22065000</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>22200000</c:v>
+                  <c:v>22201000</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>22151000</c:v>
+                  <c:v>22153000</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>22357000</c:v>
+                  <c:v>22360000</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>22622000</c:v>
+                  <c:v>22625000</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>22979000</c:v>
+                  <c:v>22984000</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>23393000</c:v>
+                  <c:v>23399000</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>23676000</c:v>
+                  <c:v>23685000</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>23947000</c:v>
+                  <c:v>23958000</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>24050000</c:v>
+                  <c:v>24065000</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>24196000</c:v>
+                  <c:v>24215000</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>24459000</c:v>
+                  <c:v>24478000</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>24683000</c:v>
+                  <c:v>24703000</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>24891000</c:v>
+                  <c:v>24917000</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>25108000</c:v>
+                  <c:v>25128000</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>25256000</c:v>
+                  <c:v>25274000</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>25275000</c:v>
+                  <c:v>25289000</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>25214000</c:v>
+                  <c:v>25223000</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>25308000</c:v>
+                  <c:v>25303000</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>25492000</c:v>
+                  <c:v>25467000</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>25690000</c:v>
+                  <c:v>25639000</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>25781000</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>25874000</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>25764000</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>25732000</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>25836000</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>25882000</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>25993000</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>26068000</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>26103000</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>25889000</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>25809000</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>25775000</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>25807000</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>25847000</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>25817000</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>25791000</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25646000</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>25532000</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>25436000</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>25430000</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>25438000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4739,10 +4892,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$A$2:$A$358</c:f>
+              <c:f>'(DB) Données Complètes'!$A$2:$A$379</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -5813,16 +5966,79 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44236</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$D$2:$D$358</c:f>
+              <c:f>'(DB) Données Complètes'!$D$2:$D$379</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:formatCode>_ * #.##0_ ;_ * \-#.##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6839,6 +7055,66 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>2722788</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2745579</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2763603</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2766655</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2786685</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2811833</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>2833926</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2854693</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>2877897</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2896651</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2899630</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2920664</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2945093</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2966681</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2986595</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3005846</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3025106</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3027949</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3044371</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3068066</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3087129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8582,7 +8858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2733ED11-6989-4273-BE69-0BA9E3873236}">
-  <dimension ref="A1:P359"/>
+  <dimension ref="A1:P380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8597,7 +8873,7 @@
     <col min="4" max="4" width="18.88671875" style="6" customWidth="1"/>
     <col min="5" max="5" width="44.44140625" style="4" customWidth="1"/>
     <col min="6" max="7" width="18.88671875" style="6" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" style="7" customWidth="1"/>
+    <col min="8" max="11" width="14.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="31.6640625" style="7" customWidth="1"/>
     <col min="13" max="13" width="19.44140625" style="7" customWidth="1"/>
     <col min="14" max="14" width="21.109375" style="7" customWidth="1"/>
@@ -8678,7 +8954,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="29"/>
       <c r="L3" s="87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8804,7 +9080,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L9" s="15"/>
       <c r="P9" s="15"/>
@@ -8865,13 +9141,13 @@
         <v>3</v>
       </c>
       <c r="H11" s="4">
-        <v>98719474</v>
+        <v>108713579</v>
       </c>
       <c r="I11" s="4">
-        <v>2114894</v>
+        <v>2392700</v>
       </c>
       <c r="J11" s="5">
-        <v>25690821</v>
+        <v>25438799</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>14</v>
@@ -8880,10 +9156,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="77"/>
@@ -8908,19 +9184,19 @@
         <v>8</v>
       </c>
       <c r="H12" s="24">
-        <v>25390042</v>
+        <v>28106704</v>
       </c>
       <c r="I12" s="24">
-        <v>424177</v>
+        <v>492521</v>
       </c>
       <c r="J12" s="20">
-        <v>9743146</v>
+        <v>9573871</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L12" s="27">
-        <v>88.99</v>
+        <v>99.97</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -8947,19 +9223,19 @@
         <v>15</v>
       </c>
       <c r="H13" s="68">
-        <v>10640544</v>
+        <v>10892550</v>
       </c>
       <c r="I13" s="68">
-        <v>153221</v>
+        <v>155588</v>
       </c>
       <c r="J13" s="69">
-        <v>187260</v>
+        <v>138253</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L13" s="70">
-        <v>13.7</v>
+        <v>14.75</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -8986,19 +9262,19 @@
         <v>10</v>
       </c>
       <c r="H14" s="71">
-        <v>8755133</v>
+        <v>9765694</v>
       </c>
       <c r="I14" s="71">
-        <v>215299</v>
+        <v>237601</v>
       </c>
       <c r="J14" s="21">
-        <v>945063</v>
+        <v>849766</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>414</v>
       </c>
       <c r="L14" s="26">
-        <v>13.4</v>
+        <v>13.39</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -9025,19 +9301,19 @@
         <v>9</v>
       </c>
       <c r="H15" s="23">
-        <v>3677352</v>
+        <v>4042837</v>
       </c>
       <c r="I15" s="23">
-        <v>68412</v>
+        <v>79194</v>
       </c>
       <c r="J15" s="22">
-        <v>527404</v>
+        <v>404501</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L15" s="28">
-        <v>67.47</v>
+        <v>72.61</v>
       </c>
       <c r="O15" s="77"/>
     </row>
@@ -9062,19 +9338,19 @@
         <v>296</v>
       </c>
       <c r="H16" s="4">
-        <v>3583907</v>
+        <v>4013799</v>
       </c>
       <c r="I16" s="4">
-        <v>95981</v>
+        <v>116287</v>
       </c>
       <c r="J16" s="5">
-        <v>1887304</v>
+        <v>1803505</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="L16" s="25">
-        <v>98.74</v>
+        <v>453</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9098,25 +9374,25 @@
         <v>45</v>
       </c>
       <c r="H17" s="74">
-        <v>3011257</v>
+        <v>3427386</v>
       </c>
       <c r="I17" s="74">
-        <v>72647</v>
+        <v>81448</v>
       </c>
       <c r="J17" s="75">
-        <v>2722788</v>
+        <v>3087129</v>
       </c>
       <c r="K17" s="75" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L17" s="76">
-        <v>63.08</v>
+        <v>72.61</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9140,19 +9416,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>2603472</v>
+        <v>3056035</v>
       </c>
       <c r="I18" s="4">
-        <v>55441</v>
+        <v>64747</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L18" s="25">
-        <v>64.5</v>
+        <v>76.510000000000005</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -9178,19 +9454,19 @@
         <v>345</v>
       </c>
       <c r="H19" s="23">
-        <v>2441854</v>
+        <v>2697296</v>
       </c>
       <c r="I19" s="23">
-        <v>84674</v>
+        <v>93045</v>
       </c>
       <c r="J19" s="22">
-        <v>502053</v>
+        <v>402174</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L19" s="28">
-        <v>50.37</v>
+        <v>59.08</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -9216,19 +9492,19 @@
         <v>370</v>
       </c>
       <c r="H20" s="23">
-        <v>2418472</v>
+        <v>2572190</v>
       </c>
       <c r="I20" s="23">
-        <v>24789</v>
+        <v>27284</v>
       </c>
       <c r="J20" s="22">
-        <v>97633</v>
+        <v>83702</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L20" s="28">
-        <v>33.229999999999997</v>
+        <v>36.85</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -9252,22 +9528,22 @@
         <v>10</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H21" s="23">
-        <v>2125261</v>
+        <v>2330422</v>
       </c>
       <c r="I21" s="23">
-        <v>52020</v>
+        <v>65036</v>
       </c>
       <c r="J21" s="22">
-        <v>293041</v>
+        <v>164386</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L21" s="28">
-        <v>44.61</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -14195,7 +14471,7 @@
         <v>9302</v>
       </c>
       <c r="E320" s="81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -14443,7 +14719,7 @@
         <v>44197</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C337" s="6">
         <v>2380107</v>
@@ -14468,7 +14744,7 @@
         <v>3037</v>
       </c>
       <c r="E338" s="81" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -14476,7 +14752,7 @@
         <v>44199</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C339" s="6">
         <v>2395305</v>
@@ -14497,7 +14773,7 @@
         <v>2398298</v>
       </c>
       <c r="D340" s="22">
-        <f t="shared" ref="D340:D358" si="6">C340-C339</f>
+        <f t="shared" ref="D340:D379" si="6">C340-C339</f>
         <v>2993</v>
       </c>
     </row>
@@ -14536,7 +14812,7 @@
         <v>44203</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C343" s="6">
         <v>2460401</v>
@@ -14551,7 +14827,7 @@
         <v>44204</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C344" s="6">
         <v>2478418</v>
@@ -14566,7 +14842,7 @@
         <v>44205</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C345" s="6">
         <v>2497548</v>
@@ -14581,7 +14857,7 @@
         <v>44206</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C346" s="6">
         <v>2513077</v>
@@ -14596,7 +14872,7 @@
         <v>44207</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C347" s="6">
         <v>2515706</v>
@@ -14611,7 +14887,7 @@
         <v>44208</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C348" s="6">
         <v>2533398</v>
@@ -14626,7 +14902,7 @@
         <v>44209</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C349" s="6">
         <v>2555739</v>
@@ -14641,7 +14917,7 @@
         <v>44210</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C350" s="6">
         <v>2575555</v>
@@ -14656,7 +14932,7 @@
         <v>44211</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C351" s="8">
         <v>2594921</v>
@@ -14672,7 +14948,7 @@
         <v>44212</v>
       </c>
       <c r="B352" s="79" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C352" s="80">
         <v>2615149</v>
@@ -14682,7 +14958,7 @@
         <v>20228</v>
       </c>
       <c r="E352" s="81" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -14690,7 +14966,7 @@
         <v>44213</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C353" s="6">
         <v>2631363</v>
@@ -14705,7 +14981,7 @@
         <v>44214</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C354" s="6">
         <v>2633839</v>
@@ -14720,7 +14996,7 @@
         <v>44215</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C355" s="6">
         <v>2655175</v>
@@ -14735,7 +15011,7 @@
         <v>44216</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C356" s="6">
         <v>2680223</v>
@@ -14750,7 +15026,7 @@
         <v>44217</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C357" s="6">
         <v>2701429</v>
@@ -14765,7 +15041,7 @@
         <v>44218</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C358" s="6">
         <v>2722788</v>
@@ -14776,12 +15052,325 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C359" s="64" t="s">
+      <c r="A359" s="9">
+        <v>44219</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C359" s="6">
+        <v>2745579</v>
+      </c>
+      <c r="D359" s="22">
+        <f t="shared" si="6"/>
+        <v>22791</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="9">
+        <v>44220</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C360" s="6">
+        <v>2763603</v>
+      </c>
+      <c r="D360" s="22">
+        <f t="shared" si="6"/>
+        <v>18024</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="9">
+        <v>44221</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C361" s="6">
+        <v>2766655</v>
+      </c>
+      <c r="D361" s="22">
+        <f t="shared" si="6"/>
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="9">
+        <v>44222</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C362" s="6">
+        <v>2786685</v>
+      </c>
+      <c r="D362" s="22">
+        <f t="shared" si="6"/>
+        <v>20030</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="9">
+        <v>44223</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C363" s="6">
+        <v>2811833</v>
+      </c>
+      <c r="D363" s="22">
+        <f t="shared" si="6"/>
+        <v>25148</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="9">
+        <v>44224</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C364" s="6">
+        <v>2833926</v>
+      </c>
+      <c r="D364" s="22">
+        <f t="shared" si="6"/>
+        <v>22093</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="9">
+        <v>44225</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C365" s="6">
+        <v>2854693</v>
+      </c>
+      <c r="D365" s="22">
+        <f t="shared" si="6"/>
+        <v>20767</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="9">
+        <v>44226</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C366" s="6">
+        <v>2877897</v>
+      </c>
+      <c r="D366" s="22">
+        <f t="shared" si="6"/>
+        <v>23204</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="9">
+        <v>44227</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C367" s="6">
+        <v>2896651</v>
+      </c>
+      <c r="D367" s="22">
+        <f t="shared" si="6"/>
+        <v>18754</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="9">
+        <v>44228</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C368" s="6">
+        <v>2899630</v>
+      </c>
+      <c r="D368" s="22">
+        <f t="shared" si="6"/>
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="9">
+        <v>44229</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C369" s="6">
+        <v>2920664</v>
+      </c>
+      <c r="D369" s="22">
+        <f t="shared" si="6"/>
+        <v>21034</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="9">
+        <v>44230</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C370" s="6">
+        <v>2945093</v>
+      </c>
+      <c r="D370" s="22">
+        <f t="shared" si="6"/>
+        <v>24429</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="9">
+        <v>44231</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C371" s="6">
+        <v>2966681</v>
+      </c>
+      <c r="D371" s="22">
+        <f t="shared" si="6"/>
+        <v>21588</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="9">
+        <v>44232</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C372" s="6">
+        <v>2986595</v>
+      </c>
+      <c r="D372" s="22">
+        <f t="shared" si="6"/>
+        <v>19914</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="9">
+        <v>44233</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C373" s="6">
+        <v>3005846</v>
+      </c>
+      <c r="D373" s="22">
+        <f t="shared" si="6"/>
+        <v>19251</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="9">
+        <v>44234</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C374" s="6">
+        <v>3025106</v>
+      </c>
+      <c r="D374" s="22">
+        <f t="shared" si="6"/>
+        <v>19260</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="9">
+        <v>44235</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C375" s="6">
+        <v>3027949</v>
+      </c>
+      <c r="D375" s="22">
+        <f t="shared" si="6"/>
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="9">
+        <v>44236</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C376" s="6">
+        <v>3044371</v>
+      </c>
+      <c r="D376" s="22">
+        <f t="shared" si="6"/>
+        <v>16422</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="9">
+        <v>44237</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C377" s="6">
+        <v>3068066</v>
+      </c>
+      <c r="D377" s="22">
+        <f t="shared" si="6"/>
+        <v>23695</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="9">
+        <v>44238</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C378" s="6">
+        <v>3087129</v>
+      </c>
+      <c r="D378" s="22">
+        <f t="shared" si="6"/>
+        <v>19063</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="9">
+        <v>44239</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="22"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="9"/>
+      <c r="C380" s="64" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D15:D358">
+  <conditionalFormatting sqref="D15:D378">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>IFERROR(IFERROR(-0.01*C14,-0.01*C13),-0.01*C12)</formula>
       <formula>IFERROR(IFERROR(0.01*C14,0.01*C13),0.01*C12)</formula>
@@ -14808,7 +15397,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="7"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14821,10 +15413,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="7"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14950,7 +15546,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0498A98C-80B5-487F-9E05-BA2DF6102CD5}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14982,39 +15578,39 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>440</v>
+        <v>347</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>418</v>
+      <c r="A4" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>436</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="37"/>
@@ -15024,20 +15620,20 @@
         <v>412</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>418</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>347</v>
       </c>
       <c r="D5" s="85"/>
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
-        <v>44177</v>
+      <c r="A6" s="88" t="s">
+        <v>412</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>347</v>
@@ -15053,7 +15649,7 @@
         <v>354</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="37"/>
@@ -15063,23 +15659,23 @@
         <v>44177</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
-        <v>44149</v>
+        <v>44177</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>299</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="D9" s="85"/>
       <c r="E9" s="37"/>
@@ -15092,7 +15688,7 @@
         <v>299</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="37"/>
@@ -15105,7 +15701,7 @@
         <v>299</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="37"/>
@@ -15118,7 +15714,7 @@
         <v>299</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="37"/>
@@ -15131,20 +15727,20 @@
         <v>299</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
-        <v>44135</v>
+        <v>44149</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="37"/>
@@ -15157,7 +15753,7 @@
         <v>294</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="37"/>
@@ -15170,20 +15766,20 @@
         <v>294</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
-        <v>44121</v>
+        <v>44135</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="37"/>
@@ -15196,7 +15792,7 @@
         <v>271</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="37"/>
@@ -15209,20 +15805,20 @@
         <v>271</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="D19" s="85"/>
       <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
-        <v>44107</v>
+        <v>44121</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="D20" s="85"/>
       <c r="E20" s="37"/>
@@ -15235,20 +15831,20 @@
         <v>258</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
-        <v>44072</v>
+        <v>44107</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="D22" s="85"/>
       <c r="E22" s="37"/>
@@ -15261,33 +15857,33 @@
         <v>92</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="D23" s="85"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
-        <v>44065</v>
+        <v>44072</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
-        <v>44044</v>
+        <v>44065</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D25" s="85"/>
       <c r="E25" s="37"/>
@@ -15300,20 +15896,20 @@
         <v>69</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D26" s="85"/>
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
-        <v>44026</v>
+        <v>44044</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D27" s="85"/>
       <c r="E27" s="37"/>
@@ -15326,20 +15922,20 @@
         <v>65</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="85"/>
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
-        <v>44013</v>
+        <v>44026</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D29" s="85"/>
       <c r="E29" s="37"/>
@@ -15352,7 +15948,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="85"/>
       <c r="E30" s="37"/>
@@ -15365,20 +15961,20 @@
         <v>32</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="85"/>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
-        <v>44010</v>
+        <v>44013</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D32" s="86"/>
       <c r="E32" s="37"/>
@@ -15391,20 +15987,20 @@
         <v>30</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" s="85"/>
       <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
-        <v>44005</v>
+        <v>44010</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D34" s="85"/>
       <c r="E34" s="37"/>
@@ -15417,7 +16013,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D35" s="85"/>
       <c r="E35" s="37"/>
@@ -15430,20 +16026,20 @@
         <v>27</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="85"/>
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -15454,18 +16050,18 @@
         <v>23</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
-        <v>43992</v>
+        <v>44000</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -15475,37 +16071,53 @@
       <c r="B40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>21</v>
+      <c r="C40" s="36" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
+        <v>43992</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="34">
         <v>43986</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B42" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C42" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="84" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C46" s="35" t="s">
         <v>348</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="35" t="s">
+        <v>463</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E41">
-    <sortCondition descending="1" ref="A9:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:E42">
+    <sortCondition descending="1" ref="A10:A42"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15515,7 +16127,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0051AC5D-FE47-43E6-8AF1-4AEA504DE4AE}">
-  <dimension ref="A1:N358"/>
+  <dimension ref="A1:N379"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18607,7 +19219,7 @@
         <v>3275</v>
       </c>
       <c r="C133" s="22">
-        <f t="shared" ref="C133:C358" si="2">B133*1000</f>
+        <f t="shared" ref="C133:C379" si="2">B133*1000</f>
         <v>3275000</v>
       </c>
       <c r="D133" s="8">
@@ -21746,11 +22358,11 @@
         <v>44197</v>
       </c>
       <c r="B337" s="6">
-        <v>21983</v>
+        <v>21979</v>
       </c>
       <c r="C337" s="6">
         <f t="shared" si="2"/>
-        <v>21983000</v>
+        <v>21979000</v>
       </c>
       <c r="D337" s="6">
         <v>2380107</v>
@@ -21761,11 +22373,11 @@
         <v>44198</v>
       </c>
       <c r="B338" s="6">
-        <v>22064</v>
+        <v>22065</v>
       </c>
       <c r="C338" s="6">
         <f t="shared" si="2"/>
-        <v>22064000</v>
+        <v>22065000</v>
       </c>
       <c r="D338" s="8">
         <v>2383144</v>
@@ -21776,11 +22388,11 @@
         <v>44199</v>
       </c>
       <c r="B339" s="6">
-        <v>22200</v>
+        <v>22201</v>
       </c>
       <c r="C339" s="6">
         <f t="shared" si="2"/>
-        <v>22200000</v>
+        <v>22201000</v>
       </c>
       <c r="D339" s="6">
         <v>2395305</v>
@@ -21791,11 +22403,11 @@
         <v>44200</v>
       </c>
       <c r="B340" s="6">
-        <v>22151</v>
+        <v>22153</v>
       </c>
       <c r="C340" s="6">
         <f t="shared" si="2"/>
-        <v>22151000</v>
+        <v>22153000</v>
       </c>
       <c r="D340" s="6">
         <v>2398298</v>
@@ -21806,11 +22418,11 @@
         <v>44201</v>
       </c>
       <c r="B341" s="6">
-        <v>22357</v>
+        <v>22360</v>
       </c>
       <c r="C341" s="6">
         <f t="shared" si="2"/>
-        <v>22357000</v>
+        <v>22360000</v>
       </c>
       <c r="D341" s="6">
         <v>2416454</v>
@@ -21821,11 +22433,11 @@
         <v>44202</v>
       </c>
       <c r="B342" s="6">
-        <v>22622</v>
+        <v>22625</v>
       </c>
       <c r="C342" s="6">
         <f t="shared" si="2"/>
-        <v>22622000</v>
+        <v>22625000</v>
       </c>
       <c r="D342" s="6">
         <v>2440297</v>
@@ -21836,11 +22448,11 @@
         <v>44203</v>
       </c>
       <c r="B343" s="6">
-        <v>22979</v>
+        <v>22984</v>
       </c>
       <c r="C343" s="6">
         <f t="shared" si="2"/>
-        <v>22979000</v>
+        <v>22984000</v>
       </c>
       <c r="D343" s="6">
         <v>2460401</v>
@@ -21851,11 +22463,11 @@
         <v>44204</v>
       </c>
       <c r="B344" s="6">
-        <v>23393</v>
+        <v>23399</v>
       </c>
       <c r="C344" s="6">
         <f t="shared" si="2"/>
-        <v>23393000</v>
+        <v>23399000</v>
       </c>
       <c r="D344" s="6">
         <v>2478418</v>
@@ -21866,11 +22478,11 @@
         <v>44205</v>
       </c>
       <c r="B345" s="6">
-        <v>23676</v>
+        <v>23685</v>
       </c>
       <c r="C345" s="6">
         <f t="shared" si="2"/>
-        <v>23676000</v>
+        <v>23685000</v>
       </c>
       <c r="D345" s="6">
         <v>2497548</v>
@@ -21881,11 +22493,11 @@
         <v>44206</v>
       </c>
       <c r="B346" s="6">
-        <v>23947</v>
+        <v>23958</v>
       </c>
       <c r="C346" s="6">
         <f t="shared" si="2"/>
-        <v>23947000</v>
+        <v>23958000</v>
       </c>
       <c r="D346" s="6">
         <v>2513077</v>
@@ -21896,11 +22508,11 @@
         <v>44207</v>
       </c>
       <c r="B347" s="6">
-        <v>24050</v>
+        <v>24065</v>
       </c>
       <c r="C347" s="6">
         <f t="shared" si="2"/>
-        <v>24050000</v>
+        <v>24065000</v>
       </c>
       <c r="D347" s="6">
         <v>2515706</v>
@@ -21911,11 +22523,11 @@
         <v>44208</v>
       </c>
       <c r="B348" s="6">
-        <v>24196</v>
+        <v>24215</v>
       </c>
       <c r="C348" s="6">
         <f t="shared" si="2"/>
-        <v>24196000</v>
+        <v>24215000</v>
       </c>
       <c r="D348" s="6">
         <v>2533398</v>
@@ -21926,11 +22538,11 @@
         <v>44209</v>
       </c>
       <c r="B349" s="6">
-        <v>24459</v>
+        <v>24478</v>
       </c>
       <c r="C349" s="6">
         <f t="shared" si="2"/>
-        <v>24459000</v>
+        <v>24478000</v>
       </c>
       <c r="D349" s="6">
         <v>2555739</v>
@@ -21941,11 +22553,11 @@
         <v>44210</v>
       </c>
       <c r="B350" s="6">
-        <v>24683</v>
+        <v>24703</v>
       </c>
       <c r="C350" s="6">
         <f t="shared" si="2"/>
-        <v>24683000</v>
+        <v>24703000</v>
       </c>
       <c r="D350" s="6">
         <v>2575555</v>
@@ -21956,11 +22568,11 @@
         <v>44211</v>
       </c>
       <c r="B351" s="6">
-        <v>24891</v>
+        <v>24917</v>
       </c>
       <c r="C351" s="6">
         <f t="shared" si="2"/>
-        <v>24891000</v>
+        <v>24917000</v>
       </c>
       <c r="D351" s="8">
         <v>2594921</v>
@@ -21971,11 +22583,11 @@
         <v>44212</v>
       </c>
       <c r="B352" s="6">
-        <v>25108</v>
+        <v>25128</v>
       </c>
       <c r="C352" s="6">
         <f t="shared" si="2"/>
-        <v>25108000</v>
+        <v>25128000</v>
       </c>
       <c r="D352" s="8">
         <v>2615149</v>
@@ -21986,11 +22598,11 @@
         <v>44213</v>
       </c>
       <c r="B353" s="6">
-        <v>25256</v>
+        <v>25274</v>
       </c>
       <c r="C353" s="6">
         <f t="shared" si="2"/>
-        <v>25256000</v>
+        <v>25274000</v>
       </c>
       <c r="D353" s="6">
         <v>2631363</v>
@@ -22001,11 +22613,11 @@
         <v>44214</v>
       </c>
       <c r="B354" s="6">
-        <v>25275</v>
+        <v>25289</v>
       </c>
       <c r="C354" s="6">
         <f t="shared" si="2"/>
-        <v>25275000</v>
+        <v>25289000</v>
       </c>
       <c r="D354" s="6">
         <v>2633839</v>
@@ -22016,11 +22628,11 @@
         <v>44215</v>
       </c>
       <c r="B355" s="6">
-        <v>25214</v>
+        <v>25223</v>
       </c>
       <c r="C355" s="6">
         <f t="shared" si="2"/>
-        <v>25214000</v>
+        <v>25223000</v>
       </c>
       <c r="D355" s="6">
         <v>2655175</v>
@@ -22031,11 +22643,11 @@
         <v>44216</v>
       </c>
       <c r="B356" s="6">
-        <v>25308</v>
+        <v>25303</v>
       </c>
       <c r="C356" s="6">
         <f t="shared" si="2"/>
-        <v>25308000</v>
+        <v>25303000</v>
       </c>
       <c r="D356" s="6">
         <v>2680223</v>
@@ -22046,11 +22658,11 @@
         <v>44217</v>
       </c>
       <c r="B357" s="6">
-        <v>25492</v>
+        <v>25467</v>
       </c>
       <c r="C357" s="6">
         <f t="shared" si="2"/>
-        <v>25492000</v>
+        <v>25467000</v>
       </c>
       <c r="D357" s="6">
         <v>2701429</v>
@@ -22061,14 +22673,326 @@
         <v>44218</v>
       </c>
       <c r="B358" s="6">
-        <v>25690</v>
+        <v>25639</v>
       </c>
       <c r="C358" s="6">
         <f t="shared" si="2"/>
-        <v>25690000</v>
+        <v>25639000</v>
       </c>
       <c r="D358" s="6">
         <v>2722788</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="9">
+        <v>44219</v>
+      </c>
+      <c r="B359" s="6">
+        <v>25781</v>
+      </c>
+      <c r="C359" s="6">
+        <f t="shared" si="2"/>
+        <v>25781000</v>
+      </c>
+      <c r="D359" s="6">
+        <v>2745579</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="9">
+        <v>44220</v>
+      </c>
+      <c r="B360" s="6">
+        <v>25874</v>
+      </c>
+      <c r="C360" s="6">
+        <f t="shared" si="2"/>
+        <v>25874000</v>
+      </c>
+      <c r="D360" s="6">
+        <v>2763603</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="9">
+        <v>44221</v>
+      </c>
+      <c r="B361" s="6">
+        <v>25764</v>
+      </c>
+      <c r="C361" s="6">
+        <f t="shared" si="2"/>
+        <v>25764000</v>
+      </c>
+      <c r="D361" s="6">
+        <v>2766655</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="9">
+        <v>44222</v>
+      </c>
+      <c r="B362" s="6">
+        <v>25732</v>
+      </c>
+      <c r="C362" s="6">
+        <f t="shared" si="2"/>
+        <v>25732000</v>
+      </c>
+      <c r="D362" s="6">
+        <v>2786685</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="9">
+        <v>44223</v>
+      </c>
+      <c r="B363" s="6">
+        <v>25836</v>
+      </c>
+      <c r="C363" s="6">
+        <f t="shared" si="2"/>
+        <v>25836000</v>
+      </c>
+      <c r="D363" s="6">
+        <v>2811833</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="9">
+        <v>44224</v>
+      </c>
+      <c r="B364" s="6">
+        <v>25882</v>
+      </c>
+      <c r="C364" s="6">
+        <f t="shared" si="2"/>
+        <v>25882000</v>
+      </c>
+      <c r="D364" s="6">
+        <v>2833926</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="9">
+        <v>44225</v>
+      </c>
+      <c r="B365" s="6">
+        <v>25993</v>
+      </c>
+      <c r="C365" s="6">
+        <f t="shared" si="2"/>
+        <v>25993000</v>
+      </c>
+      <c r="D365" s="6">
+        <v>2854693</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="9">
+        <v>44226</v>
+      </c>
+      <c r="B366" s="6">
+        <v>26068</v>
+      </c>
+      <c r="C366" s="6">
+        <f t="shared" si="2"/>
+        <v>26068000</v>
+      </c>
+      <c r="D366" s="6">
+        <v>2877897</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="9">
+        <v>44227</v>
+      </c>
+      <c r="B367" s="6">
+        <v>26103</v>
+      </c>
+      <c r="C367" s="6">
+        <f t="shared" si="2"/>
+        <v>26103000</v>
+      </c>
+      <c r="D367" s="6">
+        <v>2896651</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="9">
+        <v>44228</v>
+      </c>
+      <c r="B368" s="6">
+        <v>25889</v>
+      </c>
+      <c r="C368" s="6">
+        <f t="shared" si="2"/>
+        <v>25889000</v>
+      </c>
+      <c r="D368" s="6">
+        <v>2899630</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="9">
+        <v>44229</v>
+      </c>
+      <c r="B369" s="6">
+        <v>25809</v>
+      </c>
+      <c r="C369" s="6">
+        <f t="shared" si="2"/>
+        <v>25809000</v>
+      </c>
+      <c r="D369" s="6">
+        <v>2920664</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="9">
+        <v>44230</v>
+      </c>
+      <c r="B370" s="6">
+        <v>25775</v>
+      </c>
+      <c r="C370" s="6">
+        <f t="shared" si="2"/>
+        <v>25775000</v>
+      </c>
+      <c r="D370" s="6">
+        <v>2945093</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="9">
+        <v>44231</v>
+      </c>
+      <c r="B371" s="6">
+        <v>25807</v>
+      </c>
+      <c r="C371" s="6">
+        <f t="shared" si="2"/>
+        <v>25807000</v>
+      </c>
+      <c r="D371" s="6">
+        <v>2966681</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="9">
+        <v>44232</v>
+      </c>
+      <c r="B372" s="6">
+        <v>25847</v>
+      </c>
+      <c r="C372" s="6">
+        <f t="shared" si="2"/>
+        <v>25847000</v>
+      </c>
+      <c r="D372" s="6">
+        <v>2986595</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="9">
+        <v>44233</v>
+      </c>
+      <c r="B373" s="6">
+        <v>25817</v>
+      </c>
+      <c r="C373" s="6">
+        <f t="shared" si="2"/>
+        <v>25817000</v>
+      </c>
+      <c r="D373" s="6">
+        <v>3005846</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="9">
+        <v>44234</v>
+      </c>
+      <c r="B374" s="6">
+        <v>25791</v>
+      </c>
+      <c r="C374" s="6">
+        <f t="shared" si="2"/>
+        <v>25791000</v>
+      </c>
+      <c r="D374" s="6">
+        <v>3025106</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="9">
+        <v>44235</v>
+      </c>
+      <c r="B375" s="6">
+        <v>25646</v>
+      </c>
+      <c r="C375" s="6">
+        <f t="shared" si="2"/>
+        <v>25646000</v>
+      </c>
+      <c r="D375" s="6">
+        <v>3027949</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="9">
+        <v>44236</v>
+      </c>
+      <c r="B376" s="6">
+        <v>25532</v>
+      </c>
+      <c r="C376" s="6">
+        <f t="shared" si="2"/>
+        <v>25532000</v>
+      </c>
+      <c r="D376" s="6">
+        <v>3044371</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="9">
+        <v>44237</v>
+      </c>
+      <c r="B377" s="6">
+        <v>25436</v>
+      </c>
+      <c r="C377" s="6">
+        <f t="shared" si="2"/>
+        <v>25436000</v>
+      </c>
+      <c r="D377" s="6">
+        <v>3068066</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="9">
+        <v>44238</v>
+      </c>
+      <c r="B378" s="6">
+        <v>25430</v>
+      </c>
+      <c r="C378" s="6">
+        <f t="shared" si="2"/>
+        <v>25430000</v>
+      </c>
+      <c r="D378" s="6">
+        <v>3087129</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="9">
+        <v>44239</v>
+      </c>
+      <c r="B379" s="6">
+        <v>25438</v>
+      </c>
+      <c r="C379" s="6">
+        <f t="shared" si="2"/>
+        <v>25438000</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus (v2.5).xlsx
+++ b/Coronavirus (v2.5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\druon\Desktop\LOL\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9899F40-F4BE-4A19-B7E8-6BF371BBA4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C98EC7-4395-415F-ABED-05E40696F0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C74FB7AA-F2FE-4EBA-A853-66368F783162}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="459">
   <si>
     <t>Légende :</t>
   </si>
@@ -1501,39 +1501,12 @@
     <t>22,2 M</t>
   </si>
   <si>
-    <t>22,9 M</t>
-  </si>
-  <si>
     <t>23,3 M</t>
   </si>
   <si>
     <t>23,6 M</t>
   </si>
   <si>
-    <t>23,9 M</t>
-  </si>
-  <si>
-    <t>24,0 M</t>
-  </si>
-  <si>
-    <t>24,4 M</t>
-  </si>
-  <si>
-    <t>25,1 M</t>
-  </si>
-  <si>
-    <t>25,2 M</t>
-  </si>
-  <si>
-    <t>25,3 M</t>
-  </si>
-  <si>
-    <t>25,4 M</t>
-  </si>
-  <si>
-    <t>25,6 M</t>
-  </si>
-  <si>
     <t>Couvre-feu à 18h dans 15 départements</t>
   </si>
   <si>
@@ -1549,82 +1522,94 @@
     <t>Le numéro de version est désormais composé de deux chiffres.</t>
   </si>
   <si>
-    <t>24,2 M</t>
-  </si>
-  <si>
-    <t>24,7 M</t>
-  </si>
-  <si>
-    <t>24,9 M</t>
-  </si>
-  <si>
-    <t>25,7 M</t>
-  </si>
-  <si>
-    <t>25,8 M</t>
-  </si>
-  <si>
-    <t>25,9 M</t>
-  </si>
-  <si>
-    <t>26,0 M</t>
-  </si>
-  <si>
-    <t>26,1 M</t>
-  </si>
-  <si>
-    <t>25,5 M</t>
-  </si>
-  <si>
-    <t>TOP 10 des pays les plus touchés (au 12 février) :</t>
-  </si>
-  <si>
-    <t>214 ms</t>
-  </si>
-  <si>
-    <t>7,44 s</t>
-  </si>
-  <si>
-    <t>332 M</t>
-  </si>
-  <si>
-    <t>204 M</t>
-  </si>
-  <si>
-    <t>106 M</t>
-  </si>
-  <si>
-    <t>81,0 M</t>
-  </si>
-  <si>
-    <t>1,18 tests par personne</t>
-  </si>
-  <si>
-    <t>47,4 M</t>
-  </si>
-  <si>
-    <t>35,7 M</t>
-  </si>
-  <si>
-    <t>35,6 M</t>
-  </si>
-  <si>
-    <t>31,2 M</t>
-  </si>
-  <si>
     <t>41,7 M</t>
   </si>
   <si>
-    <t>3 m 33 s</t>
-  </si>
-  <si>
-    <t>4,63 s</t>
-  </si>
-  <si>
     <t>13 février 2021</t>
   </si>
   <si>
     <t>Ajout des années dans les colonnes "Date"</t>
+  </si>
+  <si>
+    <t>21,7 M</t>
+  </si>
+  <si>
+    <t>22,4 M</t>
+  </si>
+  <si>
+    <t>22,8 M</t>
+  </si>
+  <si>
+    <t>23,0 M</t>
+  </si>
+  <si>
+    <t>23,2 M</t>
+  </si>
+  <si>
+    <t>23,1 M</t>
+  </si>
+  <si>
+    <t>23,5 M</t>
+  </si>
+  <si>
+    <t>23,7 M</t>
+  </si>
+  <si>
+    <t>23,8 M</t>
+  </si>
+  <si>
+    <t>23,4 M</t>
+  </si>
+  <si>
+    <t>22,7 M</t>
+  </si>
+  <si>
+    <t>Couvre-feu le week-end dans 1 département et 2 agglomérations</t>
+  </si>
+  <si>
+    <t>TOP 10 des pays les plus touchés (au 5 mars) :</t>
+  </si>
+  <si>
+    <t>366 M</t>
+  </si>
+  <si>
+    <t>1,10 tests par personne</t>
+  </si>
+  <si>
+    <t>219 M</t>
+  </si>
+  <si>
+    <t>112 M</t>
+  </si>
+  <si>
+    <t>94,1 M</t>
+  </si>
+  <si>
+    <t>1,38 tests par personne</t>
+  </si>
+  <si>
+    <t>54,3 M</t>
+  </si>
+  <si>
+    <t>39,3 M</t>
+  </si>
+  <si>
+    <t>33,8 M</t>
+  </si>
+  <si>
+    <t>45,1 M</t>
+  </si>
+  <si>
+    <t>221 ms</t>
+  </si>
+  <si>
+    <t>9,73 s</t>
+  </si>
+  <si>
+    <t>4,12 s</t>
+  </si>
+  <si>
+    <t>4 m 46 s</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1835,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2092,6 +2077,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Insatisfaisant" xfId="4" builtinId="27"/>
@@ -2270,10 +2270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$A$2:$A$379</c:f>
+              <c:f>'(DB) Données Complètes'!$A$2:$A$400</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -3407,16 +3407,79 @@
                 </c:pt>
                 <c:pt idx="377">
                   <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$C$2:$C$379</c:f>
+              <c:f>'(DB) Données Complètes'!$C$2:$C$400</c:f>
               <c:numCache>
                 <c:formatCode>_ * #.##0_ ;_ * \-#.##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>13000</c:v>
                 </c:pt>
@@ -4414,133 +4477,196 @@
                   <c:v>22369000</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>21979000</c:v>
+                  <c:v>20186000</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>22065000</c:v>
+                  <c:v>20261000</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>22201000</c:v>
+                  <c:v>20381000</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>22153000</c:v>
+                  <c:v>20314000</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>22360000</c:v>
+                  <c:v>20507000</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>22625000</c:v>
+                  <c:v>20756000</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>22984000</c:v>
+                  <c:v>21099000</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>23399000</c:v>
+                  <c:v>21496000</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>23685000</c:v>
+                  <c:v>21766000</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>23958000</c:v>
+                  <c:v>22027000</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>24065000</c:v>
+                  <c:v>22111000</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>24215000</c:v>
+                  <c:v>22247000</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>24478000</c:v>
+                  <c:v>22490000</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>24703000</c:v>
+                  <c:v>22696000</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>24917000</c:v>
+                  <c:v>22892000</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>25128000</c:v>
+                  <c:v>23090000</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>25274000</c:v>
+                  <c:v>23224000</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>25289000</c:v>
+                  <c:v>23218000</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>25223000</c:v>
+                  <c:v>23138000</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>25303000</c:v>
+                  <c:v>23200000</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>25467000</c:v>
+                  <c:v>23343000</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>25639000</c:v>
+                  <c:v>23502000</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>25781000</c:v>
+                  <c:v>23631000</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>25874000</c:v>
+                  <c:v>23582000</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>25764000</c:v>
+                  <c:v>23582000</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>25732000</c:v>
+                  <c:v>23534000</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>25836000</c:v>
+                  <c:v>23614000</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>25882000</c:v>
+                  <c:v>23636000</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>25993000</c:v>
+                  <c:v>23729000</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>26068000</c:v>
+                  <c:v>23789000</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>26103000</c:v>
+                  <c:v>23811000</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>25889000</c:v>
+                  <c:v>23572000</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>25809000</c:v>
+                  <c:v>23472000</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>25775000</c:v>
+                  <c:v>23409000</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>25807000</c:v>
+                  <c:v>23409000</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>25847000</c:v>
+                  <c:v>23428000</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>25817000</c:v>
+                  <c:v>23371000</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>25791000</c:v>
+                  <c:v>23312000</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>25646000</c:v>
+                  <c:v>23139000</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>25532000</c:v>
+                  <c:v>23002000</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>25436000</c:v>
+                  <c:v>22867000</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>25430000</c:v>
+                  <c:v>22823000</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>25438000</c:v>
+                  <c:v>22781000</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>22741000</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>22647000</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>22475000</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>22330000</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>22247000</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>22192000</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>22161000</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>22145000</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>22089000</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>21908000</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>21815000</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>21794000</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>21812000</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>21830000</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>21829000</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>21820000</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>21653000</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>21609000</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>21696000</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>21732000</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>21783000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4892,10 +5018,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$A$2:$A$379</c:f>
+              <c:f>'(DB) Données Complètes'!$A$2:$A$400</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -6029,16 +6155,79 @@
                 </c:pt>
                 <c:pt idx="377">
                   <c:v>44239</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44240</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44242</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44243</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44246</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44247</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$D$2:$D$379</c:f>
+              <c:f>'(DB) Données Complètes'!$D$2:$D$400</c:f>
               <c:numCache>
                 <c:formatCode>_ * #.##0_ ;_ * \-#.##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="399"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7115,6 +7304,72 @@
                 </c:pt>
                 <c:pt idx="376">
                   <c:v>3087129</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3105648</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3125616</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3141721</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3144785</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3162079</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3185288</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3206128</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3228312</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3249494</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3271174</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3274682</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3292764</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3322639</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3346363</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3369573</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3392452</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3411985</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3415484</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>3436415</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3461485</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3485070</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>3506909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8858,7 +9113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2733ED11-6989-4273-BE69-0BA9E3873236}">
-  <dimension ref="A1:P380"/>
+  <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9080,7 +9335,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L9" s="15"/>
       <c r="P9" s="15"/>
@@ -9141,13 +9396,13 @@
         <v>3</v>
       </c>
       <c r="H11" s="4">
-        <v>108713579</v>
+        <v>116660281</v>
       </c>
       <c r="I11" s="4">
-        <v>2392700</v>
+        <v>2591449</v>
       </c>
       <c r="J11" s="5">
-        <v>25438799</v>
+        <v>21783981</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>14</v>
@@ -9156,10 +9411,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="77"/>
@@ -9184,19 +9439,19 @@
         <v>8</v>
       </c>
       <c r="H12" s="24">
-        <v>28106704</v>
+        <v>29593704</v>
       </c>
       <c r="I12" s="24">
-        <v>492521</v>
+        <v>535563</v>
       </c>
       <c r="J12" s="20">
-        <v>9573871</v>
+        <v>8874812</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="L12" s="27">
-        <v>99.97</v>
+        <v>445</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>446</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -9223,19 +9478,19 @@
         <v>15</v>
       </c>
       <c r="H13" s="68">
-        <v>10892550</v>
+        <v>11191864</v>
       </c>
       <c r="I13" s="68">
-        <v>155588</v>
+        <v>157693</v>
       </c>
       <c r="J13" s="69">
-        <v>138253</v>
+        <v>181997</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L13" s="70">
-        <v>14.75</v>
+        <v>15.83</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -9262,13 +9517,13 @@
         <v>10</v>
       </c>
       <c r="H14" s="71">
-        <v>9765694</v>
+        <v>10871843</v>
       </c>
       <c r="I14" s="71">
-        <v>237601</v>
+        <v>262948</v>
       </c>
       <c r="J14" s="21">
-        <v>849766</v>
+        <v>937485</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>414</v>
@@ -9301,19 +9556,19 @@
         <v>9</v>
       </c>
       <c r="H15" s="23">
-        <v>4042837</v>
+        <v>4301159</v>
       </c>
       <c r="I15" s="23">
-        <v>79194</v>
+        <v>88285</v>
       </c>
       <c r="J15" s="22">
-        <v>404501</v>
+        <v>327553</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L15" s="28">
-        <v>72.61</v>
+        <v>77.06</v>
       </c>
       <c r="O15" s="77"/>
     </row>
@@ -9338,19 +9593,19 @@
         <v>296</v>
       </c>
       <c r="H16" s="4">
-        <v>4013799</v>
+        <v>4207304</v>
       </c>
       <c r="I16" s="4">
-        <v>116287</v>
+        <v>124261</v>
       </c>
       <c r="J16" s="5">
-        <v>1803505</v>
+        <v>938476</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9374,25 +9629,25 @@
         <v>45</v>
       </c>
       <c r="H17" s="74">
-        <v>3427386</v>
+        <v>3859102</v>
       </c>
       <c r="I17" s="74">
-        <v>81448</v>
+        <v>88274</v>
       </c>
       <c r="J17" s="75">
-        <v>3087129</v>
+        <v>3506909</v>
       </c>
       <c r="K17" s="75" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L17" s="76">
-        <v>72.61</v>
+        <v>83.06</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9416,19 +9671,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>3056035</v>
+        <v>3149012</v>
       </c>
       <c r="I18" s="4">
-        <v>64747</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>7</v>
+        <v>71138</v>
+      </c>
+      <c r="J18" s="5">
+        <v>333210</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L18" s="25">
-        <v>76.510000000000005</v>
+        <v>84.06</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -9454,19 +9709,19 @@
         <v>345</v>
       </c>
       <c r="H19" s="23">
-        <v>2697296</v>
+        <v>3023129</v>
       </c>
       <c r="I19" s="23">
-        <v>93045</v>
+        <v>99271</v>
       </c>
       <c r="J19" s="22">
-        <v>402174</v>
+        <v>456470</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="L19" s="28">
-        <v>59.08</v>
+        <v>69.06</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -9492,19 +9747,19 @@
         <v>370</v>
       </c>
       <c r="H20" s="23">
-        <v>2572190</v>
+        <v>2757460</v>
       </c>
       <c r="I20" s="23">
-        <v>27284</v>
+        <v>28901</v>
       </c>
       <c r="J20" s="22">
-        <v>83702</v>
+        <v>119711</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L20" s="28">
-        <v>36.85</v>
+        <v>39.85</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -9531,19 +9786,19 @@
         <v>415</v>
       </c>
       <c r="H21" s="23">
-        <v>2330422</v>
+        <v>2493887</v>
       </c>
       <c r="I21" s="23">
-        <v>65036</v>
+        <v>72297</v>
       </c>
       <c r="J21" s="22">
-        <v>164386</v>
+        <v>129490</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L21" s="28">
-        <v>49.74</v>
+        <v>53.72</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -14719,7 +14974,7 @@
         <v>44197</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="C337" s="6">
         <v>2380107</v>
@@ -14734,7 +14989,7 @@
         <v>44198</v>
       </c>
       <c r="B338" s="79" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C338" s="80">
         <v>2383144</v>
@@ -14744,7 +14999,7 @@
         <v>3037</v>
       </c>
       <c r="E338" s="81" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -14752,7 +15007,7 @@
         <v>44199</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C339" s="6">
         <v>2395305</v>
@@ -14767,13 +15022,13 @@
         <v>44200</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C340" s="6">
         <v>2398298</v>
       </c>
       <c r="D340" s="22">
-        <f t="shared" ref="D340:D379" si="6">C340-C339</f>
+        <f t="shared" ref="D340:D400" si="6">C340-C339</f>
         <v>2993</v>
       </c>
     </row>
@@ -14782,7 +15037,7 @@
         <v>44201</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C341" s="6">
         <v>2416454</v>
@@ -14797,7 +15052,7 @@
         <v>44202</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="C342" s="6">
         <v>2440297</v>
@@ -14812,7 +15067,7 @@
         <v>44203</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C343" s="6">
         <v>2460401</v>
@@ -14827,7 +15082,7 @@
         <v>44204</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C344" s="6">
         <v>2478418</v>
@@ -14842,7 +15097,7 @@
         <v>44205</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C345" s="6">
         <v>2497548</v>
@@ -14857,7 +15112,7 @@
         <v>44206</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C346" s="6">
         <v>2513077</v>
@@ -14872,7 +15127,7 @@
         <v>44207</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C347" s="6">
         <v>2515706</v>
@@ -14887,7 +15142,7 @@
         <v>44208</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C348" s="6">
         <v>2533398</v>
@@ -14902,7 +15157,7 @@
         <v>44209</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C349" s="6">
         <v>2555739</v>
@@ -14917,7 +15172,7 @@
         <v>44210</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="C350" s="6">
         <v>2575555</v>
@@ -14932,7 +15187,7 @@
         <v>44211</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C351" s="8">
         <v>2594921</v>
@@ -14948,7 +15203,7 @@
         <v>44212</v>
       </c>
       <c r="B352" s="79" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C352" s="80">
         <v>2615149</v>
@@ -14958,7 +15213,7 @@
         <v>20228</v>
       </c>
       <c r="E352" s="81" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -14966,7 +15221,7 @@
         <v>44213</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C353" s="6">
         <v>2631363</v>
@@ -14981,7 +15236,7 @@
         <v>44214</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C354" s="6">
         <v>2633839</v>
@@ -14996,7 +15251,7 @@
         <v>44215</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C355" s="6">
         <v>2655175</v>
@@ -15011,7 +15266,7 @@
         <v>44216</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C356" s="6">
         <v>2680223</v>
@@ -15026,7 +15281,7 @@
         <v>44217</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C357" s="6">
         <v>2701429</v>
@@ -15041,7 +15296,7 @@
         <v>44218</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C358" s="6">
         <v>2722788</v>
@@ -15056,7 +15311,7 @@
         <v>44219</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C359" s="6">
         <v>2745579</v>
@@ -15071,7 +15326,7 @@
         <v>44220</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C360" s="6">
         <v>2763603</v>
@@ -15086,7 +15341,7 @@
         <v>44221</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C361" s="6">
         <v>2766655</v>
@@ -15101,7 +15356,7 @@
         <v>44222</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C362" s="6">
         <v>2786685</v>
@@ -15116,7 +15371,7 @@
         <v>44223</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C363" s="6">
         <v>2811833</v>
@@ -15131,7 +15386,7 @@
         <v>44224</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C364" s="6">
         <v>2833926</v>
@@ -15146,7 +15401,7 @@
         <v>44225</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C365" s="6">
         <v>2854693</v>
@@ -15161,7 +15416,7 @@
         <v>44226</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C366" s="6">
         <v>2877897</v>
@@ -15176,7 +15431,7 @@
         <v>44227</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C367" s="6">
         <v>2896651</v>
@@ -15191,7 +15446,7 @@
         <v>44228</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C368" s="6">
         <v>2899630</v>
@@ -15206,7 +15461,7 @@
         <v>44229</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C369" s="6">
         <v>2920664</v>
@@ -15236,7 +15491,7 @@
         <v>44231</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C371" s="6">
         <v>2966681</v>
@@ -15251,7 +15506,7 @@
         <v>44232</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C372" s="6">
         <v>2986595</v>
@@ -15266,7 +15521,7 @@
         <v>44233</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C373" s="6">
         <v>3005846</v>
@@ -15281,7 +15536,7 @@
         <v>44234</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C374" s="6">
         <v>3025106</v>
@@ -15296,7 +15551,7 @@
         <v>44235</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C375" s="6">
         <v>3027949</v>
@@ -15311,7 +15566,7 @@
         <v>44236</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C376" s="6">
         <v>3044371</v>
@@ -15326,7 +15581,7 @@
         <v>44237</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C377" s="6">
         <v>3068066</v>
@@ -15341,7 +15596,7 @@
         <v>44238</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C378" s="6">
         <v>3087129</v>
@@ -15356,21 +15611,341 @@
         <v>44239</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D379" s="22"/>
+        <v>442</v>
+      </c>
+      <c r="C379" s="6">
+        <v>3105648</v>
+      </c>
+      <c r="D379" s="22">
+        <f t="shared" si="6"/>
+        <v>18519</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="9"/>
-      <c r="C380" s="64" t="s">
+      <c r="A380" s="9">
+        <v>44240</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C380" s="6">
+        <v>3125616</v>
+      </c>
+      <c r="D380" s="22">
+        <f t="shared" si="6"/>
+        <v>19968</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="9">
+        <v>44241</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C381" s="6">
+        <v>3141721</v>
+      </c>
+      <c r="D381" s="22">
+        <f t="shared" si="6"/>
+        <v>16105</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="9">
+        <v>44242</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C382" s="6">
+        <v>3144785</v>
+      </c>
+      <c r="D382" s="22">
+        <f t="shared" si="6"/>
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="9">
+        <v>44243</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C383" s="6">
+        <v>3162079</v>
+      </c>
+      <c r="D383" s="22">
+        <f t="shared" si="6"/>
+        <v>17294</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="9">
+        <v>44244</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C384" s="6">
+        <v>3185288</v>
+      </c>
+      <c r="D384" s="22">
+        <f t="shared" si="6"/>
+        <v>23209</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="9">
+        <v>44245</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C385" s="6">
+        <v>3206128</v>
+      </c>
+      <c r="D385" s="22">
+        <f t="shared" si="6"/>
+        <v>20840</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="9">
+        <v>44246</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C386" s="6">
+        <v>3228312</v>
+      </c>
+      <c r="D386" s="22">
+        <f t="shared" si="6"/>
+        <v>22184</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="9">
+        <v>44247</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C387" s="6">
+        <v>3249494</v>
+      </c>
+      <c r="D387" s="22">
+        <f t="shared" si="6"/>
+        <v>21182</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="9">
+        <v>44248</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C388" s="6">
+        <v>3271174</v>
+      </c>
+      <c r="D388" s="22">
+        <f t="shared" si="6"/>
+        <v>21680</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="9">
+        <v>44249</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C389" s="6">
+        <v>3274682</v>
+      </c>
+      <c r="D389" s="22">
+        <f t="shared" si="6"/>
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="9">
+        <v>44250</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C390" s="6">
+        <v>3292764</v>
+      </c>
+      <c r="D390" s="22">
+        <f t="shared" si="6"/>
+        <v>18082</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="9">
+        <v>44251</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C391" s="6">
+        <v>3322639</v>
+      </c>
+      <c r="D391" s="22">
+        <f t="shared" si="6"/>
+        <v>29875</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="9">
+        <v>44252</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C392" s="6">
+        <v>3346363</v>
+      </c>
+      <c r="D392" s="22">
+        <f t="shared" si="6"/>
+        <v>23724</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="9">
+        <v>44253</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C393" s="6">
+        <v>3369573</v>
+      </c>
+      <c r="D393" s="22">
+        <f t="shared" si="6"/>
+        <v>23210</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="9">
+        <v>44254</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C394" s="6">
+        <v>3392452</v>
+      </c>
+      <c r="D394" s="22">
+        <f t="shared" si="6"/>
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="9">
+        <v>44255</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C395" s="6">
+        <v>3411985</v>
+      </c>
+      <c r="D395" s="22">
+        <f t="shared" si="6"/>
+        <v>19533</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="9">
+        <v>44256</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C396" s="6">
+        <v>3415484</v>
+      </c>
+      <c r="D396" s="22">
+        <f t="shared" si="6"/>
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="9">
+        <v>44257</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C397" s="6">
+        <v>3436415</v>
+      </c>
+      <c r="D397" s="22">
+        <f t="shared" si="6"/>
+        <v>20931</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="9">
+        <v>44258</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C398" s="6">
+        <v>3461485</v>
+      </c>
+      <c r="D398" s="22">
+        <f t="shared" si="6"/>
+        <v>25070</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="9">
+        <v>44259</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C399" s="6">
+        <v>3485070</v>
+      </c>
+      <c r="D399" s="22">
+        <f t="shared" si="6"/>
+        <v>23585</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A400" s="89">
+        <v>44260</v>
+      </c>
+      <c r="B400" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="C400" s="91">
+        <v>3506909</v>
+      </c>
+      <c r="D400" s="90">
+        <f t="shared" si="6"/>
+        <v>21839</v>
+      </c>
+      <c r="E400" s="92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="64" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D15:D378">
+  <conditionalFormatting sqref="D15:D400">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>IFERROR(IFERROR(-0.01*C14,-0.01*C13),-0.01*C12)</formula>
       <formula>IFERROR(IFERROR(0.01*C14,0.01*C13),0.01*C12)</formula>
@@ -15578,10 +16153,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>347</v>
@@ -15591,23 +16166,23 @@
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>347</v>
@@ -16112,7 +16687,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" s="35" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -16127,7 +16702,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0051AC5D-FE47-43E6-8AF1-4AEA504DE4AE}">
-  <dimension ref="A1:N379"/>
+  <dimension ref="A1:N400"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19219,7 +19794,7 @@
         <v>3275</v>
       </c>
       <c r="C133" s="22">
-        <f t="shared" ref="C133:C379" si="2">B133*1000</f>
+        <f t="shared" ref="C133:C398" si="2">B133*1000</f>
         <v>3275000</v>
       </c>
       <c r="D133" s="8">
@@ -22358,11 +22933,11 @@
         <v>44197</v>
       </c>
       <c r="B337" s="6">
-        <v>21979</v>
+        <v>20186</v>
       </c>
       <c r="C337" s="6">
         <f t="shared" si="2"/>
-        <v>21979000</v>
+        <v>20186000</v>
       </c>
       <c r="D337" s="6">
         <v>2380107</v>
@@ -22373,11 +22948,11 @@
         <v>44198</v>
       </c>
       <c r="B338" s="6">
-        <v>22065</v>
+        <v>20261</v>
       </c>
       <c r="C338" s="6">
         <f t="shared" si="2"/>
-        <v>22065000</v>
+        <v>20261000</v>
       </c>
       <c r="D338" s="8">
         <v>2383144</v>
@@ -22388,11 +22963,11 @@
         <v>44199</v>
       </c>
       <c r="B339" s="6">
-        <v>22201</v>
+        <v>20381</v>
       </c>
       <c r="C339" s="6">
         <f t="shared" si="2"/>
-        <v>22201000</v>
+        <v>20381000</v>
       </c>
       <c r="D339" s="6">
         <v>2395305</v>
@@ -22403,11 +22978,11 @@
         <v>44200</v>
       </c>
       <c r="B340" s="6">
-        <v>22153</v>
+        <v>20314</v>
       </c>
       <c r="C340" s="6">
         <f t="shared" si="2"/>
-        <v>22153000</v>
+        <v>20314000</v>
       </c>
       <c r="D340" s="6">
         <v>2398298</v>
@@ -22418,11 +22993,11 @@
         <v>44201</v>
       </c>
       <c r="B341" s="6">
-        <v>22360</v>
+        <v>20507</v>
       </c>
       <c r="C341" s="6">
         <f t="shared" si="2"/>
-        <v>22360000</v>
+        <v>20507000</v>
       </c>
       <c r="D341" s="6">
         <v>2416454</v>
@@ -22433,11 +23008,11 @@
         <v>44202</v>
       </c>
       <c r="B342" s="6">
-        <v>22625</v>
+        <v>20756</v>
       </c>
       <c r="C342" s="6">
         <f t="shared" si="2"/>
-        <v>22625000</v>
+        <v>20756000</v>
       </c>
       <c r="D342" s="6">
         <v>2440297</v>
@@ -22448,11 +23023,11 @@
         <v>44203</v>
       </c>
       <c r="B343" s="6">
-        <v>22984</v>
+        <v>21099</v>
       </c>
       <c r="C343" s="6">
         <f t="shared" si="2"/>
-        <v>22984000</v>
+        <v>21099000</v>
       </c>
       <c r="D343" s="6">
         <v>2460401</v>
@@ -22463,11 +23038,11 @@
         <v>44204</v>
       </c>
       <c r="B344" s="6">
-        <v>23399</v>
+        <v>21496</v>
       </c>
       <c r="C344" s="6">
         <f t="shared" si="2"/>
-        <v>23399000</v>
+        <v>21496000</v>
       </c>
       <c r="D344" s="6">
         <v>2478418</v>
@@ -22478,11 +23053,11 @@
         <v>44205</v>
       </c>
       <c r="B345" s="6">
-        <v>23685</v>
+        <v>21766</v>
       </c>
       <c r="C345" s="6">
         <f t="shared" si="2"/>
-        <v>23685000</v>
+        <v>21766000</v>
       </c>
       <c r="D345" s="6">
         <v>2497548</v>
@@ -22493,11 +23068,11 @@
         <v>44206</v>
       </c>
       <c r="B346" s="6">
-        <v>23958</v>
+        <v>22027</v>
       </c>
       <c r="C346" s="6">
         <f t="shared" si="2"/>
-        <v>23958000</v>
+        <v>22027000</v>
       </c>
       <c r="D346" s="6">
         <v>2513077</v>
@@ -22508,11 +23083,11 @@
         <v>44207</v>
       </c>
       <c r="B347" s="6">
-        <v>24065</v>
+        <v>22111</v>
       </c>
       <c r="C347" s="6">
         <f t="shared" si="2"/>
-        <v>24065000</v>
+        <v>22111000</v>
       </c>
       <c r="D347" s="6">
         <v>2515706</v>
@@ -22523,11 +23098,11 @@
         <v>44208</v>
       </c>
       <c r="B348" s="6">
-        <v>24215</v>
+        <v>22247</v>
       </c>
       <c r="C348" s="6">
         <f t="shared" si="2"/>
-        <v>24215000</v>
+        <v>22247000</v>
       </c>
       <c r="D348" s="6">
         <v>2533398</v>
@@ -22538,11 +23113,11 @@
         <v>44209</v>
       </c>
       <c r="B349" s="6">
-        <v>24478</v>
+        <v>22490</v>
       </c>
       <c r="C349" s="6">
         <f t="shared" si="2"/>
-        <v>24478000</v>
+        <v>22490000</v>
       </c>
       <c r="D349" s="6">
         <v>2555739</v>
@@ -22553,11 +23128,11 @@
         <v>44210</v>
       </c>
       <c r="B350" s="6">
-        <v>24703</v>
+        <v>22696</v>
       </c>
       <c r="C350" s="6">
         <f t="shared" si="2"/>
-        <v>24703000</v>
+        <v>22696000</v>
       </c>
       <c r="D350" s="6">
         <v>2575555</v>
@@ -22568,11 +23143,11 @@
         <v>44211</v>
       </c>
       <c r="B351" s="6">
-        <v>24917</v>
+        <v>22892</v>
       </c>
       <c r="C351" s="6">
         <f t="shared" si="2"/>
-        <v>24917000</v>
+        <v>22892000</v>
       </c>
       <c r="D351" s="8">
         <v>2594921</v>
@@ -22583,11 +23158,11 @@
         <v>44212</v>
       </c>
       <c r="B352" s="6">
-        <v>25128</v>
+        <v>23090</v>
       </c>
       <c r="C352" s="6">
         <f t="shared" si="2"/>
-        <v>25128000</v>
+        <v>23090000</v>
       </c>
       <c r="D352" s="8">
         <v>2615149</v>
@@ -22598,11 +23173,11 @@
         <v>44213</v>
       </c>
       <c r="B353" s="6">
-        <v>25274</v>
+        <v>23224</v>
       </c>
       <c r="C353" s="6">
         <f t="shared" si="2"/>
-        <v>25274000</v>
+        <v>23224000</v>
       </c>
       <c r="D353" s="6">
         <v>2631363</v>
@@ -22613,11 +23188,11 @@
         <v>44214</v>
       </c>
       <c r="B354" s="6">
-        <v>25289</v>
+        <v>23218</v>
       </c>
       <c r="C354" s="6">
         <f t="shared" si="2"/>
-        <v>25289000</v>
+        <v>23218000</v>
       </c>
       <c r="D354" s="6">
         <v>2633839</v>
@@ -22628,11 +23203,11 @@
         <v>44215</v>
       </c>
       <c r="B355" s="6">
-        <v>25223</v>
+        <v>23138</v>
       </c>
       <c r="C355" s="6">
         <f t="shared" si="2"/>
-        <v>25223000</v>
+        <v>23138000</v>
       </c>
       <c r="D355" s="6">
         <v>2655175</v>
@@ -22643,11 +23218,11 @@
         <v>44216</v>
       </c>
       <c r="B356" s="6">
-        <v>25303</v>
+        <v>23200</v>
       </c>
       <c r="C356" s="6">
         <f t="shared" si="2"/>
-        <v>25303000</v>
+        <v>23200000</v>
       </c>
       <c r="D356" s="6">
         <v>2680223</v>
@@ -22658,11 +23233,11 @@
         <v>44217</v>
       </c>
       <c r="B357" s="6">
-        <v>25467</v>
+        <v>23343</v>
       </c>
       <c r="C357" s="6">
         <f t="shared" si="2"/>
-        <v>25467000</v>
+        <v>23343000</v>
       </c>
       <c r="D357" s="6">
         <v>2701429</v>
@@ -22673,11 +23248,11 @@
         <v>44218</v>
       </c>
       <c r="B358" s="6">
-        <v>25639</v>
+        <v>23502</v>
       </c>
       <c r="C358" s="6">
         <f t="shared" si="2"/>
-        <v>25639000</v>
+        <v>23502000</v>
       </c>
       <c r="D358" s="6">
         <v>2722788</v>
@@ -22688,11 +23263,11 @@
         <v>44219</v>
       </c>
       <c r="B359" s="6">
-        <v>25781</v>
+        <v>23631</v>
       </c>
       <c r="C359" s="6">
         <f t="shared" si="2"/>
-        <v>25781000</v>
+        <v>23631000</v>
       </c>
       <c r="D359" s="6">
         <v>2745579</v>
@@ -22703,11 +23278,11 @@
         <v>44220</v>
       </c>
       <c r="B360" s="6">
-        <v>25874</v>
+        <v>23582</v>
       </c>
       <c r="C360" s="6">
         <f t="shared" si="2"/>
-        <v>25874000</v>
+        <v>23582000</v>
       </c>
       <c r="D360" s="6">
         <v>2763603</v>
@@ -22718,11 +23293,11 @@
         <v>44221</v>
       </c>
       <c r="B361" s="6">
-        <v>25764</v>
+        <v>23582</v>
       </c>
       <c r="C361" s="6">
         <f t="shared" si="2"/>
-        <v>25764000</v>
+        <v>23582000</v>
       </c>
       <c r="D361" s="6">
         <v>2766655</v>
@@ -22733,11 +23308,11 @@
         <v>44222</v>
       </c>
       <c r="B362" s="6">
-        <v>25732</v>
+        <v>23534</v>
       </c>
       <c r="C362" s="6">
         <f t="shared" si="2"/>
-        <v>25732000</v>
+        <v>23534000</v>
       </c>
       <c r="D362" s="6">
         <v>2786685</v>
@@ -22748,11 +23323,11 @@
         <v>44223</v>
       </c>
       <c r="B363" s="6">
-        <v>25836</v>
+        <v>23614</v>
       </c>
       <c r="C363" s="6">
         <f t="shared" si="2"/>
-        <v>25836000</v>
+        <v>23614000</v>
       </c>
       <c r="D363" s="6">
         <v>2811833</v>
@@ -22763,11 +23338,11 @@
         <v>44224</v>
       </c>
       <c r="B364" s="6">
-        <v>25882</v>
+        <v>23636</v>
       </c>
       <c r="C364" s="6">
         <f t="shared" si="2"/>
-        <v>25882000</v>
+        <v>23636000</v>
       </c>
       <c r="D364" s="6">
         <v>2833926</v>
@@ -22778,11 +23353,11 @@
         <v>44225</v>
       </c>
       <c r="B365" s="6">
-        <v>25993</v>
+        <v>23729</v>
       </c>
       <c r="C365" s="6">
         <f t="shared" si="2"/>
-        <v>25993000</v>
+        <v>23729000</v>
       </c>
       <c r="D365" s="6">
         <v>2854693</v>
@@ -22793,11 +23368,11 @@
         <v>44226</v>
       </c>
       <c r="B366" s="6">
-        <v>26068</v>
+        <v>23789</v>
       </c>
       <c r="C366" s="6">
         <f t="shared" si="2"/>
-        <v>26068000</v>
+        <v>23789000</v>
       </c>
       <c r="D366" s="6">
         <v>2877897</v>
@@ -22808,11 +23383,11 @@
         <v>44227</v>
       </c>
       <c r="B367" s="6">
-        <v>26103</v>
+        <v>23811</v>
       </c>
       <c r="C367" s="6">
         <f t="shared" si="2"/>
-        <v>26103000</v>
+        <v>23811000</v>
       </c>
       <c r="D367" s="6">
         <v>2896651</v>
@@ -22823,11 +23398,11 @@
         <v>44228</v>
       </c>
       <c r="B368" s="6">
-        <v>25889</v>
+        <v>23572</v>
       </c>
       <c r="C368" s="6">
         <f t="shared" si="2"/>
-        <v>25889000</v>
+        <v>23572000</v>
       </c>
       <c r="D368" s="6">
         <v>2899630</v>
@@ -22838,11 +23413,11 @@
         <v>44229</v>
       </c>
       <c r="B369" s="6">
-        <v>25809</v>
+        <v>23472</v>
       </c>
       <c r="C369" s="6">
         <f t="shared" si="2"/>
-        <v>25809000</v>
+        <v>23472000</v>
       </c>
       <c r="D369" s="6">
         <v>2920664</v>
@@ -22853,11 +23428,11 @@
         <v>44230</v>
       </c>
       <c r="B370" s="6">
-        <v>25775</v>
+        <v>23409</v>
       </c>
       <c r="C370" s="6">
         <f t="shared" si="2"/>
-        <v>25775000</v>
+        <v>23409000</v>
       </c>
       <c r="D370" s="6">
         <v>2945093</v>
@@ -22868,11 +23443,11 @@
         <v>44231</v>
       </c>
       <c r="B371" s="6">
-        <v>25807</v>
+        <v>23409</v>
       </c>
       <c r="C371" s="6">
         <f t="shared" si="2"/>
-        <v>25807000</v>
+        <v>23409000</v>
       </c>
       <c r="D371" s="6">
         <v>2966681</v>
@@ -22883,11 +23458,11 @@
         <v>44232</v>
       </c>
       <c r="B372" s="6">
-        <v>25847</v>
+        <v>23428</v>
       </c>
       <c r="C372" s="6">
         <f t="shared" si="2"/>
-        <v>25847000</v>
+        <v>23428000</v>
       </c>
       <c r="D372" s="6">
         <v>2986595</v>
@@ -22898,11 +23473,11 @@
         <v>44233</v>
       </c>
       <c r="B373" s="6">
-        <v>25817</v>
+        <v>23371</v>
       </c>
       <c r="C373" s="6">
         <f t="shared" si="2"/>
-        <v>25817000</v>
+        <v>23371000</v>
       </c>
       <c r="D373" s="6">
         <v>3005846</v>
@@ -22913,11 +23488,11 @@
         <v>44234</v>
       </c>
       <c r="B374" s="6">
-        <v>25791</v>
+        <v>23312</v>
       </c>
       <c r="C374" s="6">
         <f t="shared" si="2"/>
-        <v>25791000</v>
+        <v>23312000</v>
       </c>
       <c r="D374" s="6">
         <v>3025106</v>
@@ -22928,11 +23503,11 @@
         <v>44235</v>
       </c>
       <c r="B375" s="6">
-        <v>25646</v>
+        <v>23139</v>
       </c>
       <c r="C375" s="6">
         <f t="shared" si="2"/>
-        <v>25646000</v>
+        <v>23139000</v>
       </c>
       <c r="D375" s="6">
         <v>3027949</v>
@@ -22943,11 +23518,11 @@
         <v>44236</v>
       </c>
       <c r="B376" s="6">
-        <v>25532</v>
+        <v>23002</v>
       </c>
       <c r="C376" s="6">
         <f t="shared" si="2"/>
-        <v>25532000</v>
+        <v>23002000</v>
       </c>
       <c r="D376" s="6">
         <v>3044371</v>
@@ -22958,11 +23533,11 @@
         <v>44237</v>
       </c>
       <c r="B377" s="6">
-        <v>25436</v>
+        <v>22867</v>
       </c>
       <c r="C377" s="6">
         <f t="shared" si="2"/>
-        <v>25436000</v>
+        <v>22867000</v>
       </c>
       <c r="D377" s="6">
         <v>3068066</v>
@@ -22973,11 +23548,11 @@
         <v>44238</v>
       </c>
       <c r="B378" s="6">
-        <v>25430</v>
+        <v>22823</v>
       </c>
       <c r="C378" s="6">
         <f t="shared" si="2"/>
-        <v>25430000</v>
+        <v>22823000</v>
       </c>
       <c r="D378" s="6">
         <v>3087129</v>
@@ -22988,11 +23563,329 @@
         <v>44239</v>
       </c>
       <c r="B379" s="6">
-        <v>25438</v>
+        <v>22781</v>
       </c>
       <c r="C379" s="6">
         <f t="shared" si="2"/>
-        <v>25438000</v>
+        <v>22781000</v>
+      </c>
+      <c r="D379" s="6">
+        <v>3105648</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="9">
+        <v>44240</v>
+      </c>
+      <c r="B380" s="6">
+        <v>22741</v>
+      </c>
+      <c r="C380" s="6">
+        <f t="shared" si="2"/>
+        <v>22741000</v>
+      </c>
+      <c r="D380" s="6">
+        <v>3125616</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="9">
+        <v>44241</v>
+      </c>
+      <c r="B381" s="6">
+        <v>22647</v>
+      </c>
+      <c r="C381" s="6">
+        <f t="shared" si="2"/>
+        <v>22647000</v>
+      </c>
+      <c r="D381" s="6">
+        <v>3141721</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="9">
+        <v>44242</v>
+      </c>
+      <c r="B382" s="6">
+        <v>22475</v>
+      </c>
+      <c r="C382" s="6">
+        <f t="shared" si="2"/>
+        <v>22475000</v>
+      </c>
+      <c r="D382" s="6">
+        <v>3144785</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="9">
+        <v>44243</v>
+      </c>
+      <c r="B383" s="6">
+        <v>22330</v>
+      </c>
+      <c r="C383" s="6">
+        <f t="shared" si="2"/>
+        <v>22330000</v>
+      </c>
+      <c r="D383" s="6">
+        <v>3162079</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="9">
+        <v>44244</v>
+      </c>
+      <c r="B384" s="6">
+        <v>22247</v>
+      </c>
+      <c r="C384" s="6">
+        <f t="shared" si="2"/>
+        <v>22247000</v>
+      </c>
+      <c r="D384" s="6">
+        <v>3185288</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="9">
+        <v>44245</v>
+      </c>
+      <c r="B385" s="6">
+        <v>22192</v>
+      </c>
+      <c r="C385" s="6">
+        <f t="shared" si="2"/>
+        <v>22192000</v>
+      </c>
+      <c r="D385" s="6">
+        <v>3206128</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="9">
+        <v>44246</v>
+      </c>
+      <c r="B386" s="6">
+        <v>22161</v>
+      </c>
+      <c r="C386" s="6">
+        <f t="shared" si="2"/>
+        <v>22161000</v>
+      </c>
+      <c r="D386" s="6">
+        <v>3228312</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="9">
+        <v>44247</v>
+      </c>
+      <c r="B387" s="6">
+        <v>22145</v>
+      </c>
+      <c r="C387" s="6">
+        <f t="shared" si="2"/>
+        <v>22145000</v>
+      </c>
+      <c r="D387" s="6">
+        <v>3249494</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="9">
+        <v>44248</v>
+      </c>
+      <c r="B388" s="6">
+        <v>22089</v>
+      </c>
+      <c r="C388" s="6">
+        <f t="shared" si="2"/>
+        <v>22089000</v>
+      </c>
+      <c r="D388" s="6">
+        <v>3271174</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="9">
+        <v>44249</v>
+      </c>
+      <c r="B389" s="6">
+        <v>21908</v>
+      </c>
+      <c r="C389" s="6">
+        <f t="shared" si="2"/>
+        <v>21908000</v>
+      </c>
+      <c r="D389" s="6">
+        <v>3274682</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="9">
+        <v>44250</v>
+      </c>
+      <c r="B390" s="6">
+        <v>21815</v>
+      </c>
+      <c r="C390" s="6">
+        <f t="shared" si="2"/>
+        <v>21815000</v>
+      </c>
+      <c r="D390" s="6">
+        <v>3292764</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="9">
+        <v>44251</v>
+      </c>
+      <c r="B391" s="6">
+        <v>21794</v>
+      </c>
+      <c r="C391" s="6">
+        <f t="shared" si="2"/>
+        <v>21794000</v>
+      </c>
+      <c r="D391" s="6">
+        <v>3322639</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="9">
+        <v>44252</v>
+      </c>
+      <c r="B392" s="6">
+        <v>21812</v>
+      </c>
+      <c r="C392" s="6">
+        <f t="shared" si="2"/>
+        <v>21812000</v>
+      </c>
+      <c r="D392" s="6">
+        <v>3346363</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="9">
+        <v>44253</v>
+      </c>
+      <c r="B393" s="6">
+        <v>21830</v>
+      </c>
+      <c r="C393" s="6">
+        <f t="shared" si="2"/>
+        <v>21830000</v>
+      </c>
+      <c r="D393" s="6">
+        <v>3369573</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="9">
+        <v>44254</v>
+      </c>
+      <c r="B394" s="6">
+        <v>21829</v>
+      </c>
+      <c r="C394" s="6">
+        <f t="shared" si="2"/>
+        <v>21829000</v>
+      </c>
+      <c r="D394" s="6">
+        <v>3392452</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="9">
+        <v>44255</v>
+      </c>
+      <c r="B395" s="6">
+        <v>21820</v>
+      </c>
+      <c r="C395" s="6">
+        <f t="shared" si="2"/>
+        <v>21820000</v>
+      </c>
+      <c r="D395" s="6">
+        <v>3411985</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="9">
+        <v>44256</v>
+      </c>
+      <c r="B396" s="6">
+        <v>21653</v>
+      </c>
+      <c r="C396" s="6">
+        <f t="shared" si="2"/>
+        <v>21653000</v>
+      </c>
+      <c r="D396" s="6">
+        <v>3415484</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="9">
+        <v>44257</v>
+      </c>
+      <c r="B397" s="6">
+        <v>21609</v>
+      </c>
+      <c r="C397" s="6">
+        <f t="shared" si="2"/>
+        <v>21609000</v>
+      </c>
+      <c r="D397" s="6">
+        <v>3436415</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="9">
+        <v>44258</v>
+      </c>
+      <c r="B398" s="6">
+        <v>21696</v>
+      </c>
+      <c r="C398" s="6">
+        <f t="shared" si="2"/>
+        <v>21696000</v>
+      </c>
+      <c r="D398" s="6">
+        <v>3461485</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="9">
+        <v>44259</v>
+      </c>
+      <c r="B399" s="6">
+        <v>21732</v>
+      </c>
+      <c r="C399" s="6">
+        <f t="shared" ref="C399:C400" si="4">B399*1000</f>
+        <v>21732000</v>
+      </c>
+      <c r="D399" s="6">
+        <v>3485070</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="9">
+        <v>44260</v>
+      </c>
+      <c r="B400" s="6">
+        <v>21783</v>
+      </c>
+      <c r="C400" s="6">
+        <f t="shared" si="4"/>
+        <v>21783000</v>
+      </c>
+      <c r="D400" s="93">
+        <v>3506909</v>
       </c>
     </row>
   </sheetData>
